--- a/controller/Book1.xlsx
+++ b/controller/Book1.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF4D4D"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -113,12 +120,25 @@
         <bgColor auto="true"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
     <fill/>
     <fill/>
     <fill/>
     <fill/>
   </fills>
-  <borders count="6">
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -165,21 +185,24 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +483,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -471,100 +494,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>96</v>
       </c>
     </row>
@@ -590,11 +613,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5"/>
+    <row ht="20.4" r="1" spans="1:1">
+      <c r="A1" s="6"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
